--- a/excel-util/target/classes/static/template/person-template.xlsx
+++ b/excel-util/target/classes/static/template/person-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\码云\excel-read-write-util\excel-util\src\main\resources\static\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8216158-36D2-4594-A261-75414FEDA024}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F975BF6-80B7-4968-A8B7-97401FF39CA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -179,7 +179,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -239,20 +239,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -276,12 +267,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -304,15 +289,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
+      <xdr:colOff>403860</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>868680</xdr:colOff>
+      <xdr:colOff>1013460</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>678180</xdr:rowOff>
+      <xdr:rowOff>701040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -341,7 +326,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9753600" y="701040"/>
+          <a:off x="9898380" y="723900"/>
           <a:ext cx="609600" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -717,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -737,7 +722,7 @@
     <col min="11" max="11" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.5">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -752,7 +737,7 @@
       <c r="J1" s="7"/>
       <c r="K1" s="8"/>
     </row>
-    <row r="2" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -787,7 +772,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -819,10 +804,9 @@
         <f>H3-H3*I3</f>
         <v>15600</v>
       </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="10"/>
+      <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -854,10 +838,9 @@
         <f t="shared" ref="J4:J5" si="0">H4-H4*I4</f>
         <v>7200</v>
       </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="10"/>
+      <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -892,9 +875,8 @@
       <c r="K5" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K3:L4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
